--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,13 +38,13 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2020-02-0095</t>
+    <t>PR No.:  2020-02-00112</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>February 18, 2020</t>
+    <t>February 24, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,21 +68,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S717</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3 cu. Ft. Single Door Refrigirator
-</t>
-  </si>
-  <si>
-    <t>S718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi cooker 4 in 1- Rice cooker, steamer, shaun shaun and warmer
-</t>
+    <t>S595</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Token
+For Speakers for the conduct of General Orientation Program (GOP)for 53rd Batch LGOOs II</t>
   </si>
   <si>
     <t>Total</t>
@@ -91,7 +84,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">To be used in the Office of the Assistant Regional Director </t>
+    <t xml:space="preserve">For the conduct of General Orientation Program (GOP)for 53rd Batch LGOOs II </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -125,8 +118,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -344,25 +338,25 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -475,139 +469,135 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
@@ -909,11 +899,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -928,10 +919,10 @@
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="32"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
@@ -939,30 +930,30 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -972,11 +963,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
@@ -989,16 +980,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
@@ -1007,32 +998,32 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -1041,43 +1032,31 @@
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E11" s="26">
-        <v>14950</v>
+        <v>1500</v>
       </c>
       <c r="F11" s="26">
-        <v>14950</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27">
-        <v>2800</v>
-      </c>
-      <c r="F12" s="27">
-        <v>2800</v>
-      </c>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="29"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="20"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -1085,7 +1064,7 @@
     <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="29"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="20"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -1093,7 +1072,7 @@
     <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="29"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="20"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -1101,7 +1080,7 @@
     <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="29"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="20"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -1109,7 +1088,7 @@
     <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="29"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="20"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -1117,7 +1096,7 @@
     <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="29"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="20"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -1125,7 +1104,7 @@
     <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="29"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="20"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -1133,7 +1112,7 @@
     <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="29"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="20"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -1141,7 +1120,7 @@
     <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="29"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="20"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -1149,7 +1128,7 @@
     <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="29"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="20"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -1157,7 +1136,7 @@
     <row r="23" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="29"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="20"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -1165,7 +1144,7 @@
     <row r="24" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="29"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="20"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
@@ -1173,7 +1152,7 @@
     <row r="25" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="29"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="20"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
@@ -1181,7 +1160,7 @@
     <row r="26" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="29"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="20"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
@@ -1189,7 +1168,7 @@
     <row r="27" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="29"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="20"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -1197,7 +1176,7 @@
     <row r="28" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="29"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="20"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -1205,7 +1184,7 @@
     <row r="29" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="29"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="20"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
@@ -1213,7 +1192,7 @@
     <row r="30" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="29"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="20"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
@@ -1221,7 +1200,7 @@
     <row r="31" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="29"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="20"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
@@ -1229,7 +1208,7 @@
     <row r="32" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="29"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="20"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -1237,7 +1216,7 @@
     <row r="33" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="29"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="20"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
@@ -1245,7 +1224,7 @@
     <row r="34" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="29"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="20"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -1253,7 +1232,7 @@
     <row r="35" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="29"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="20"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -1264,116 +1243,102 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>17750</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
+      <c r="A37" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="55"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="55"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="44"/>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A40" s="56"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="53"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="45"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
-      <c r="B41" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
+        <v>25</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="A9:A10"/>
@@ -1383,10 +1348,23 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0" header="0.5" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="70" fitToHeight="0" fitToWidth="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="65" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 151</oddFooter>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,13 +38,13 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2020-02-00112</t>
+    <t>PR No.:  2020-02-0095</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>February 24, 2020</t>
+    <t>February 18, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,14 +68,21 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S595</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>Token
-For Speakers for the conduct of General Orientation Program (GOP)for 53rd Batch LGOOs II</t>
+    <t>S717</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3 cu. Ft. Single Door Refrigirator
+</t>
+  </si>
+  <si>
+    <t>S718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi cooker 4 in 1- Rice cooker, steamer, shaun shaun and warmer
+</t>
   </si>
   <si>
     <t>Total</t>
@@ -84,7 +91,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">For the conduct of General Orientation Program (GOP)for 53rd Batch LGOOs II </t>
+    <t xml:space="preserve">To be used in the Office of the Assistant Regional Director </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -1036,22 +1043,34 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
+        <v>14950</v>
+      </c>
+      <c r="F11" s="26">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="26">
-        <v>1500</v>
-      </c>
-      <c r="F11" s="26">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="B12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27">
+        <v>2800</v>
+      </c>
+      <c r="F12" s="27">
+        <v>2800</v>
+      </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
@@ -1243,19 +1262,19 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>30000</v>
+        <v>17750</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
@@ -1289,18 +1308,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -1310,28 +1329,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,13 +38,13 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2020-02-0095</t>
+    <t>PR No.:  2020-02-00123</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>February 18, 2020</t>
+    <t>February 28, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,21 +68,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S717</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3 cu. Ft. Single Door Refrigirator
-</t>
-  </si>
-  <si>
-    <t>S718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi cooker 4 in 1- Rice cooker, steamer, shaun shaun and warmer
-</t>
+    <t>S454</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>Isuzu Crosswind CN8994
+alternator and aircon belt</t>
   </si>
   <si>
     <t>Total</t>
@@ -91,7 +84,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">To be used in the Office of the Assistant Regional Director </t>
+    <t>Replacement of defective alternator and aircon belt of DILG Service Vehicle</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -109,7 +102,7 @@
     <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
-    <t>ELIAS F. FERNANDEZ, JR.</t>
+    <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
     <t>Designation :</t>
@@ -118,7 +111,7 @@
     <t>FAD Chief</t>
   </si>
   <si>
-    <t>OIC-Regional Director</t>
+    <t>Assistant Regional Director</t>
   </si>
 </sst>
 </file>
@@ -345,19 +338,19 @@
       </bottom>
     </border>
     <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -480,6 +473,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -488,123 +505,99 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
@@ -911,7 +904,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -926,10 +919,10 @@
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="51"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
@@ -937,30 +930,30 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -970,11 +963,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
@@ -995,8 +988,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
@@ -1005,32 +998,32 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -1039,43 +1032,31 @@
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
       </c>
       <c r="E11" s="26">
-        <v>14950</v>
+        <v>3000</v>
       </c>
       <c r="F11" s="26">
-        <v>14950</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27">
-        <v>2800</v>
-      </c>
-      <c r="F12" s="27">
-        <v>2800</v>
-      </c>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="60"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="20"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -1083,7 +1064,7 @@
     <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="60"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="20"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -1091,7 +1072,7 @@
     <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="60"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="20"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -1099,7 +1080,7 @@
     <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="60"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="20"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -1107,7 +1088,7 @@
     <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="60"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="20"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -1115,7 +1096,7 @@
     <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="60"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="20"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -1123,7 +1104,7 @@
     <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="20"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -1131,7 +1112,7 @@
     <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="60"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="20"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -1139,7 +1120,7 @@
     <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="20"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -1147,7 +1128,7 @@
     <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="60"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="20"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -1155,7 +1136,7 @@
     <row r="23" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="60"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="20"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -1163,7 +1144,7 @@
     <row r="24" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="60"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="20"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
@@ -1171,7 +1152,7 @@
     <row r="25" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="60"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="20"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
@@ -1179,7 +1160,7 @@
     <row r="26" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="60"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="20"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
@@ -1187,7 +1168,7 @@
     <row r="27" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="60"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="20"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -1195,7 +1176,7 @@
     <row r="28" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="60"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="20"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -1203,7 +1184,7 @@
     <row r="29" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="60"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="20"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
@@ -1211,7 +1192,7 @@
     <row r="30" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="60"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="20"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
@@ -1219,7 +1200,7 @@
     <row r="31" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="60"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="20"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
@@ -1227,7 +1208,7 @@
     <row r="32" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="60"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="20"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -1235,7 +1216,7 @@
     <row r="33" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="60"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="20"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
@@ -1243,7 +1224,7 @@
     <row r="34" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="60"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="20"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -1251,7 +1232,7 @@
     <row r="35" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="60"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="20"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -1262,102 +1243,114 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>17750</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
+      <c r="A37" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="47"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="47"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A40" s="48"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="45"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="52"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
-      <c r="B41" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
+      <c r="B41" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="A9:A10"/>
@@ -1368,18 +1361,6 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,13 +38,13 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2020-02-00123</t>
+    <t>PR No.:  2020-03-0133</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>February 28, 2020</t>
+    <t>March 02, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,14 +68,21 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S454</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>Isuzu Crosswind CN8994
-alternator and aircon belt</t>
+    <t>S273</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Archfile Folder, Legal
+* 2" /3" spine 2 rings</t>
+  </si>
+  <si>
+    <t>S298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signpen, 0.7, Blue
+</t>
   </si>
   <si>
     <t>Total</t>
@@ -84,7 +91,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Replacement of defective alternator and aircon belt of DILG Service Vehicle</t>
+    <t>Realignment of Regional Records Management (QP-R4A-FAD-RICTU-08) to the newly developed Document Management System (DMS)</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -118,9 +125,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -338,25 +344,25 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -469,10 +475,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -481,6 +483,94 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -497,14 +587,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -521,84 +603,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -904,7 +914,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -919,10 +929,10 @@
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="31"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
@@ -930,30 +940,30 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -963,11 +973,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
@@ -980,16 +990,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
@@ -998,32 +1008,32 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -1032,31 +1042,43 @@
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E11" s="26">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F11" s="26">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="20">
+        <v>5</v>
+      </c>
+      <c r="E12" s="27">
+        <v>100</v>
+      </c>
+      <c r="F12" s="27">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="30"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="20"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -1064,7 +1086,7 @@
     <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="20"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -1072,7 +1094,7 @@
     <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="20"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -1080,7 +1102,7 @@
     <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="20"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -1088,7 +1110,7 @@
     <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="20"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -1096,7 +1118,7 @@
     <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="20"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -1104,7 +1126,7 @@
     <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="20"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -1112,7 +1134,7 @@
     <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="20"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -1120,7 +1142,7 @@
     <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="20"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -1128,7 +1150,7 @@
     <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="20"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -1136,7 +1158,7 @@
     <row r="23" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="20"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -1144,7 +1166,7 @@
     <row r="24" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="30"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="20"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
@@ -1152,7 +1174,7 @@
     <row r="25" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="30"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="20"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
@@ -1160,7 +1182,7 @@
     <row r="26" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="30"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="20"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
@@ -1168,7 +1190,7 @@
     <row r="27" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="20"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -1176,7 +1198,7 @@
     <row r="28" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="30"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="20"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -1184,7 +1206,7 @@
     <row r="29" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="30"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="20"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
@@ -1192,7 +1214,7 @@
     <row r="30" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="30"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="20"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
@@ -1200,7 +1222,7 @@
     <row r="31" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="30"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="20"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
@@ -1208,7 +1230,7 @@
     <row r="32" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="30"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="20"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -1216,7 +1238,7 @@
     <row r="33" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="30"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="20"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
@@ -1224,7 +1246,7 @@
     <row r="34" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="30"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="20"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -1232,7 +1254,7 @@
     <row r="35" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="30"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="20"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -1243,114 +1265,103 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>3000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
+      <c r="A37" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="54"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="54"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A40" s="55"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
-      <c r="B41" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
+      <c r="B41" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
+      <c r="B43" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
+      <c r="B44" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="50"/>
+      <c r="F44" s="51"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="A9:A10"/>
@@ -1361,6 +1372,18 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,13 +38,13 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2020-03-0133</t>
+    <t>PR No.:  2020-03-0134</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 02, 2020</t>
+    <t>March 03, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,20 +68,13 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S273</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>Archfile Folder, Legal
-* 2" /3" spine 2 rings</t>
-  </si>
-  <si>
-    <t>S298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signpen, 0.7, Blue
+    <t>S430</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> box </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cignal Load Card 
 </t>
   </si>
   <si>
@@ -91,7 +84,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Realignment of Regional Records Management (QP-R4A-FAD-RICTU-08) to the newly developed Document Management System (DMS)</t>
+    <t xml:space="preserve">Cable subscription to be used in the Office of RD and ARD </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -1046,34 +1039,22 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E11" s="26">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="F11" s="26">
-        <v>6000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="20">
-        <v>5</v>
-      </c>
-      <c r="E12" s="27">
-        <v>100</v>
-      </c>
-      <c r="F12" s="27">
-        <v>500</v>
-      </c>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
@@ -1265,19 +1246,19 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>6500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
@@ -1311,18 +1292,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -1332,28 +1313,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E44" s="50"/>
       <c r="F44" s="51"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -35,16 +35,16 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-03-0134</t>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-02-00119</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 03, 2020</t>
+    <t>February 26, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,14 +68,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S430</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> box </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cignal Load Card 
-</t>
+    <t>S764</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Accommodation - Program Updating and Levelling-off in the Implementation of Locally-funded Projects in CALABARZON Region
+* Day 0: Accommodation for 20pax * Day 1: Fullboard for 48pax * Day 2: Venue and Food for 18pax Fullboard for 71pax * Day 3: Venue and Food for 71 pax</t>
   </si>
   <si>
     <t>Total</t>
@@ -84,7 +84,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Cable subscription to be used in the Office of RD and ARD </t>
+    <t>Program Updating and Levelling-off in the Implementation of Locally-funded Projects in CALABARZON Region</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -99,7 +99,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
+    <t>GILBERTO L. TUMAMAC</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -108,7 +108,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>FAD Chief</t>
+    <t>OIC - LGMED Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -1039,13 +1039,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" s="26">
-        <v>450</v>
+        <v>364800</v>
       </c>
       <c r="F11" s="26">
-        <v>1800</v>
+        <v>364800</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>1800</v>
+        <v>364800</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -35,16 +35,16 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-02-00119</t>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0138</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>February 26, 2020</t>
+    <t>March 05, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,14 +68,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S764</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>Accommodation - Program Updating and Levelling-off in the Implementation of Locally-funded Projects in CALABARZON Region
-* Day 0: Accommodation for 20pax * Day 1: Fullboard for 48pax * Day 2: Venue and Food for 18pax Fullboard for 71pax * Day 3: Venue and Food for 71 pax</t>
+    <t>S458</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>Isuzu Fuego GNJ918
+Replacement of defective Alternator assembly</t>
   </si>
   <si>
     <t>Total</t>
@@ -84,7 +84,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Program Updating and Levelling-off in the Implementation of Locally-funded Projects in CALABARZON Region</t>
+    <t xml:space="preserve">Replacement of defective Alternator Assembly of DILG Service Vehicle  </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -99,7 +99,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>GILBERTO L. TUMAMAC</t>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -108,7 +108,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - LGMED Chief</t>
+    <t>FAD Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -1042,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="26">
-        <v>364800</v>
+        <v>12000</v>
       </c>
       <c r="F11" s="26">
-        <v>364800</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>364800</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -38,13 +38,13 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2020-03-0138</t>
+    <t>PR No.:  2020-03-0150</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 05, 2020</t>
+    <t>March 09, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,14 +68,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S458</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>Isuzu Fuego GNJ918
-Replacement of defective Alternator assembly</t>
+    <t>S430</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cignal Load Card 
+</t>
   </si>
   <si>
     <t>Total</t>
@@ -84,7 +84,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Replacement of defective Alternator Assembly of DILG Service Vehicle  </t>
+    <t>test</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -1028,7 +1028,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+    <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
@@ -1042,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="26">
-        <v>12000</v>
+        <v>450</v>
       </c>
       <c r="F11" s="26">
-        <v>12000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>12000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-03-0150</t>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0149</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -68,14 +68,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S430</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cignal Load Card 
-</t>
+    <t>S182</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>Meals And Snacks (AM PM Snacks Lunch)
+.</t>
   </si>
   <si>
     <t>Total</t>
@@ -84,7 +84,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>test</t>
+    <t>ECLIP ON THE SPOT POSTER MAKING CONTEST</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -99,7 +99,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
+    <t>GILBERTO L. TUMAMAC</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -108,7 +108,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>FAD Chief</t>
+    <t>OIC - LGMED Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -1039,13 +1039,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E11" s="26">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="F11" s="26">
-        <v>450</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>450</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -35,16 +35,16 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-03-0149</t>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0155</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 09, 2020</t>
+    <t>March 12, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,14 +68,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S182</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t>Meals And Snacks (AM PM Snacks Lunch)
-.</t>
+    <t>S501</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel and Lubricants
+</t>
   </si>
   <si>
     <t>Total</t>
@@ -84,7 +84,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>ECLIP ON THE SPOT POSTER MAKING CONTEST</t>
+    <t xml:space="preserve">For the payment of gasoline for Isuzu D Max CP 2057 last January 03, 09, and 21, 2020 </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -99,7 +99,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>GILBERTO L. TUMAMAC</t>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -108,7 +108,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - LGMED Chief</t>
+    <t>FAD Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -337,19 +337,19 @@
       </bottom>
     </border>
     <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -476,6 +476,30 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -484,124 +508,100 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -907,7 +907,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -922,10 +922,10 @@
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="52"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
@@ -933,30 +933,30 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -966,11 +966,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
@@ -983,16 +983,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
@@ -1001,32 +1001,32 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -1039,13 +1039,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E11" s="26">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="F11" s="26">
-        <v>40000</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1250,98 +1250,111 @@
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>40000</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="48"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="48"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A40" s="49"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="46"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="40" t="s">
+      <c r="C41" s="60"/>
+      <c r="D41" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="38" t="s">
+      <c r="C43" s="59"/>
+      <c r="D43" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="52"/>
+      <c r="D44" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="A37:A40"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>
@@ -1352,19 +1365,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -38,13 +38,13 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2020-03-0155</t>
+    <t>PR No.:  2020-03-0153</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 12, 2020</t>
+    <t>March 16, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,13 +68,13 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S501</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuel and Lubricants
+    <t>S865</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery 3SMF, 12 Volts
 </t>
   </si>
   <si>
@@ -84,7 +84,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">For the payment of gasoline for Isuzu D Max CP 2057 last January 03, 09, and 21, 2020 </t>
+    <t xml:space="preserve">For the use of Isuzu Fuego GNJ 918  </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -1039,13 +1039,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E11" s="26">
-        <v>48</v>
+        <v>8000</v>
       </c>
       <c r="F11" s="26">
-        <v>1536</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>1536</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,16 +35,16 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-03-0153</t>
+    <t>LGCDD-MBRTG</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0164</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 16, 2020</t>
+    <t>March 17, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,14 +68,21 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S865</t>
+    <t>S860</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Battery 3SMF, 12 Volts
-</t>
+    <t>IEC Material 18x24
+Sintra Board 18x24</t>
+  </si>
+  <si>
+    <t>S859</t>
+  </si>
+  <si>
+    <t>IEC Material 24x36
+Tarpauline</t>
   </si>
   <si>
     <t>Total</t>
@@ -84,7 +91,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">For the use of Isuzu Fuego GNJ 918  </t>
+    <t>Dissemination of IEC Related to Manila Bay Clean-up, Rehabilitation and Preservation Program Weekly Clean-up</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -99,7 +106,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
+    <t>JAY-AR T. BELTRAN</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -108,7 +115,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>FAD Chief</t>
+    <t>OIC - LGCDD Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -1039,22 +1046,34 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E11" s="26">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="F11" s="26">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="20">
+        <v>6</v>
+      </c>
+      <c r="E12" s="27">
+        <v>516</v>
+      </c>
+      <c r="F12" s="27">
+        <v>3096</v>
+      </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
@@ -1246,19 +1265,19 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>8000</v>
+        <v>29896</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -1292,18 +1311,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -1313,28 +1332,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="58"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,16 +35,16 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGCDD-MBRTG</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-03-0164</t>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0124</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 17, 2020</t>
+    <t>March 25, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,21 +68,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S860</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>IEC Material 18x24
-Sintra Board 18x24</t>
-  </si>
-  <si>
-    <t>S859</t>
-  </si>
-  <si>
-    <t>IEC Material 24x36
-Tarpauline</t>
+    <t>S280</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map Pin/Pin Assrtd Colored
+</t>
   </si>
   <si>
     <t>Total</t>
@@ -91,7 +84,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Dissemination of IEC Related to Manila Bay Clean-up, Rehabilitation and Preservation Program Weekly Clean-up</t>
+    <t xml:space="preserve">121212 </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -106,7 +99,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>JAY-AR T. BELTRAN</t>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -115,7 +108,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - LGCDD Chief</t>
+    <t>FAD Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -1046,33 +1039,33 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E11" s="26">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="F11" s="26">
-        <v>26800</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" s="27">
-        <v>516</v>
+        <v>65</v>
       </c>
       <c r="F12" s="27">
-        <v>3096</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1265,19 +1258,19 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>29896</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -1311,18 +1304,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -1332,28 +1325,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="58"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,16 +35,13 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-03-0124</t>
+    <t xml:space="preserve">PR No.:  </t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 25, 2020</t>
+    <t>January 01, 1970</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,25 +65,12 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S280</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map Pin/Pin Assrtd Colored
-</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">121212 </t>
-  </si>
-  <si>
     <t>Requested by:</t>
   </si>
   <si>
@@ -99,16 +83,10 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
     <t>Designation :</t>
-  </si>
-  <si>
-    <t>FAD Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -976,25 +954,23 @@
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>7</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
       <c r="A8" s="38"/>
       <c r="B8" s="39"/>
       <c r="C8" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="11"/>
@@ -1002,22 +978,22 @@
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
       <c r="A9" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="C9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="D9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="E9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="F9" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
@@ -1028,45 +1004,21 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1">
-      <c r="A11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1</v>
-      </c>
-      <c r="E11" s="26">
-        <v>65</v>
-      </c>
-      <c r="F11" s="26">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27">
-        <v>65</v>
-      </c>
-      <c r="F12" s="27">
-        <v>65</v>
-      </c>
+    <row r="11" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
@@ -1258,20 +1210,18 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
@@ -1304,18 +1254,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="60" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="46" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -1325,28 +1275,24 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B43" s="59"/>
       <c r="C43" s="59"/>
       <c r="D43" s="44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B44" s="52"/>
       <c r="C44" s="52"/>
       <c r="D44" s="57" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="58"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -10,12 +10,12 @@
     <sheet name="PR" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,13 +35,16 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t xml:space="preserve">PR No.:  </t>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0132</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>January 01, 1970</t>
+    <t>March 02, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -71,6 +74,9 @@
     <t>Purpose:</t>
   </si>
   <si>
+    <t>Realignment of Regional Records Management (QP-R4A-FAD-RICTU-08) to the newly developed Document Management System (DMS)</t>
+  </si>
+  <si>
     <t>Requested by:</t>
   </si>
   <si>
@@ -83,10 +89,16 @@
     <t>Printed Name :</t>
   </si>
   <si>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
     <t>Designation :</t>
+  </si>
+  <si>
+    <t>FAD Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -954,23 +966,25 @@
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
       <c r="A8" s="38"/>
       <c r="B8" s="39"/>
       <c r="C8" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="11"/>
@@ -978,22 +992,22 @@
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
       <c r="A9" s="34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
@@ -1210,18 +1224,20 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="25">
+        <v>17</v>
+      </c>
+      <c r="F36" s="25" t="str">
         <f>SUM(F11:F35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="48"/>
+        <v>18</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>19</v>
+      </c>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
@@ -1254,18 +1270,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -1275,24 +1291,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="59"/>
+        <v>23</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>24</v>
+      </c>
       <c r="C43" s="59"/>
       <c r="D43" s="44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="52"/>
+        <v>26</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>27</v>
+      </c>
       <c r="C44" s="52"/>
       <c r="D44" s="57" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="58"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,13 +38,13 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2020-03-0132</t>
+    <t>PR No.:  2020-03-0165</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 02, 2020</t>
+    <t>March 18, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,13 +68,23 @@
     <t>Total Cost</t>
   </si>
   <si>
+    <t>S867</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery 2-3 SMF, 12 Volts
+</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Realignment of Regional Records Management (QP-R4A-FAD-RICTU-08) to the newly developed Document Management System (DMS)</t>
+    <t>Test</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -1018,13 +1028,25 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
     </row>
-    <row r="11" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+    <row r="11" spans="1:6" s="2" customFormat="1">
+      <c r="A11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="26">
+        <v>8000</v>
+      </c>
+      <c r="F11" s="26">
+        <v>16000</v>
+      </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A12" s="19"/>
@@ -1224,7 +1246,7 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F36" s="25" t="str">
         <f>SUM(F11:F35)</f>
@@ -1233,10 +1255,10 @@
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="54" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -1270,18 +1292,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="60" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -1291,28 +1313,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="57" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="58"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,13 +38,13 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2020-03-0165</t>
+    <t>PR No.:  2020-03-0133</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 18, 2020</t>
+    <t>March 02, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,13 +68,20 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S867</t>
+    <t>S273</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Battery 2-3 SMF, 12 Volts
+    <t>Archfile Folder, Legal
+* 2" /3" spine 2 rings</t>
+  </si>
+  <si>
+    <t>S298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signpen, 0.7, Blue
 </t>
   </si>
   <si>
@@ -84,7 +91,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Realignment of Regional Records Management (QP-R4A-FAD-RICTU-08) to the newly developed Document Management System (DMS)</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -315,6 +322,11 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -337,19 +349,14 @@
       </bottom>
     </border>
     <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -476,6 +483,98 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -500,14 +599,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -518,90 +609,6 @@
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -907,56 +914,56 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.33203125" customWidth="true" style="0"/>
     <col min="2" max="2" width="16" customWidth="true" style="0"/>
-    <col min="3" max="3" width="42.5703125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true" style="0"/>
-    <col min="5" max="5" width="17.140625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="18.28515625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="42.5546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.6640625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="17.109375" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18.33203125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customHeight="1" ht="15.75">
+    <row r="1" spans="1:6" customHeight="1" ht="15.6">
       <c r="A1" s="1"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" customHeight="1" ht="18.75">
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="1:6" customHeight="1" ht="18">
       <c r="A2" s="1"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+    <row r="3" spans="1:6" customHeight="1" ht="17.4">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="1:6" customHeight="1" ht="15.6">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -966,11 +973,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
@@ -983,16 +990,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="54" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
@@ -1001,32 +1008,32 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -1039,22 +1046,34 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E11" s="26">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="F11" s="26">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="20">
+        <v>5</v>
+      </c>
+      <c r="E12" s="27">
+        <v>100</v>
+      </c>
+      <c r="F12" s="27">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
@@ -1246,7 +1265,7 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F36" s="25" t="str">
         <f>SUM(F11:F35)</f>
@@ -1254,108 +1273,94 @@
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
+      <c r="A37" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="55"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="55"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-    </row>
-    <row r="40" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A40" s="56"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="53"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+    </row>
+    <row r="40" spans="1:6" customHeight="1" ht="15">
+      <c r="A40" s="52"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="49"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
-      <c r="B41" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
+        <v>27</v>
+      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
+      <c r="B43" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
+      <c r="B44" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="A9:A10"/>
@@ -1365,10 +1370,24 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="65" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="66" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 151</oddFooter>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,13 +38,13 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2020-03-0133</t>
+    <t>PR No.:  2020-04-0166</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 02, 2020</t>
+    <t>April 07, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,30 +68,37 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S273</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>Archfile Folder, Legal
-* 2" /3" spine 2 rings</t>
-  </si>
-  <si>
-    <t>S298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signpen, 0.7, Blue
+    <t>A001</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS-CBN TV Plus w/o HDMI
 </t>
   </si>
   <si>
+    <t>S365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portable Bluetooth Speaker
+</t>
+  </si>
+  <si>
+    <t>S326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireless Printer 3in1 
+</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Realignment of Regional Records Management (QP-R4A-FAD-RICTU-08) to the newly developed Document Management System (DMS)</t>
+    <t>To conduct online meetings, trainings and interviews</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -1046,13 +1053,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E11" s="26">
-        <v>300</v>
+        <v>1499</v>
       </c>
       <c r="F11" s="26">
-        <v>6000</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1">
@@ -1069,19 +1076,31 @@
         <v>5</v>
       </c>
       <c r="E12" s="27">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="27">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1">
+      <c r="A13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2</v>
+      </c>
+      <c r="E13" s="27">
+        <v>14700</v>
+      </c>
+      <c r="F13" s="27">
+        <v>29400</v>
+      </c>
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A14" s="19"/>
@@ -1265,7 +1284,7 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F36" s="25" t="str">
         <f>SUM(F11:F35)</f>
@@ -1274,10 +1293,10 @@
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
@@ -1311,18 +1330,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="44"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -1332,28 +1351,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E43" s="41"/>
       <c r="F43" s="42"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C44" s="35"/>
       <c r="D44" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="31"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,13 +38,13 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2020-04-0166</t>
+    <t>PR No.:  2020-04-0167</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>April 07, 2020</t>
+    <t>May 11, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,37 +68,23 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>A001</t>
+    <t>S887</t>
   </si>
   <si>
     <t>unit</t>
   </si>
   <si>
-    <t xml:space="preserve">ABS-CBN TV Plus w/o HDMI
+    <t xml:space="preserve">Monthly Subscription to Zoom Pro
 </t>
   </si>
   <si>
-    <t>S365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portable Bluetooth Speaker
-</t>
-  </si>
-  <si>
-    <t>S326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wireless Printer 3in1 
-</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>To conduct online meetings, trainings and interviews</t>
+    <t>To conduct online meetings, trainings and interviews for the work from home arrangement for April 2020</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -125,7 +111,7 @@
     <t>FAD Chief</t>
   </si>
   <si>
-    <t>Assistant Regional Director</t>
+    <t>Officer-in-Charge</t>
   </si>
 </sst>
 </file>
@@ -329,11 +315,6 @@
       </bottom>
     </border>
     <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -356,14 +337,19 @@
       </bottom>
     </border>
     <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -490,7 +476,115 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
@@ -498,124 +592,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -921,7 +907,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -936,10 +922,10 @@
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="15.6">
       <c r="A1" s="1"/>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="55"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="18">
       <c r="A2" s="1"/>
@@ -947,30 +933,30 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="17.4">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="15.6">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -980,11 +966,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
@@ -997,16 +983,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
@@ -1015,32 +1001,32 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -1056,51 +1042,27 @@
         <v>1</v>
       </c>
       <c r="E11" s="26">
-        <v>1499</v>
+        <v>800</v>
       </c>
       <c r="F11" s="26">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="20">
-        <v>5</v>
-      </c>
-      <c r="E12" s="27">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="27">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
-      <c r="A13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="20">
-        <v>2</v>
-      </c>
-      <c r="E13" s="27">
-        <v>14700</v>
-      </c>
-      <c r="F13" s="27">
-        <v>29400</v>
-      </c>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A14" s="19"/>
@@ -1284,7 +1246,7 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F36" s="25" t="str">
         <f>SUM(F11:F35)</f>
@@ -1292,94 +1254,107 @@
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
+      <c r="A37" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="51"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="51"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="15">
-      <c r="A40" s="52"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="49"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
-      <c r="B41" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
+      <c r="B41" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
+        <v>25</v>
+      </c>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="41"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
+        <v>26</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
+        <v>29</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="A9:A10"/>
@@ -1390,19 +1365,6 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-04-0167</t>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-05-0175</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -68,14 +68,102 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S887</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly Subscription to Zoom Pro
-</t>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Safety Googles
+Plastic Frame, Non polarized, Lightweight and Durable fits over proscription glasses</t>
+  </si>
+  <si>
+    <t>S659</t>
+  </si>
+  <si>
+    <t>Safety Boots
+Dimension 26cm x 9.5cm x 33cm- Durable Lightweight, Water proof, Rubber</t>
+  </si>
+  <si>
+    <t>S661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety Helmet with Rechargeable Light
+Color white- Class G Ansi Standard, Weight 700G, Rated Voltage: 33V, Rated Capacity: 3AH, Current for main light, Source 300mA, Current for Auxiliary, Light Source: 120MA, Light Times 15HRS </t>
+  </si>
+  <si>
+    <t>N001</t>
+  </si>
+  <si>
+    <t>N95 Mask
+(Filtration Effect 95%)
+(Nasal Clip: Adjustable)
+(Materials: Non Woven)</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>Bedding - Blankets
+Single Beds: 36" x 75" cotton</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
+    <t>Beddings - Folding Beds
+(25" x 75") 
+High Density type 3 polyester double coated PVC 
+Rigid type
+Bed weight 7KGS</t>
+  </si>
+  <si>
+    <t>S664</t>
+  </si>
+  <si>
+    <t>Beddings - Pillows
+(20" x 30") 
+100% Cotton</t>
+  </si>
+  <si>
+    <t>S665</t>
+  </si>
+  <si>
+    <t>BP Monitor Apparatus
+(Power Supply: 4 pcs Batterry 1.5V AA 
+Ac Adapter Supply
+Input AC 100-240V 50/60Hz
+Measuring Method: oscillometric supply, Pressure 0-37.3kpa 0280mmhg
+Pulse 40-199 beats/min
+Accuracy: Static pressure +3mmhg 0.4kpa + 5% of the reading
+Category: Class</t>
+  </si>
+  <si>
+    <t>S666</t>
+  </si>
+  <si>
+    <t>Coffee Maker (8-10 cups)
+(8-10 cups) 
+Rated Voltage 220 x 240V
+Power 700W 
+gwt 2.63kg</t>
+  </si>
+  <si>
+    <t>S667</t>
+  </si>
+  <si>
+    <t>Emergency Light
+Voltage 220-240V  AC
+50/60 Hz 
+2 heads-24 pcs SMD LED 
+Battery 6  4.5Ah</t>
+  </si>
+  <si>
+    <t>S669</t>
+  </si>
+  <si>
+    <t>Raincoats
+Nylon Materials</t>
   </si>
   <si>
     <t>Total</t>
@@ -84,7 +172,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>To conduct online meetings, trainings and interviews for the work from home arrangement for April 2020</t>
+    <t xml:space="preserve">To Support the Monitoring updates and Providing Technical Support and Assistance to the Region due to Taal Volcanic Eruption      </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -99,7 +187,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
+    <t>GILBERTO L. TUMAMAC</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -108,7 +196,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>FAD Chief</t>
+    <t>OIC -  Chief, LGMED</t>
   </si>
   <si>
     <t>Officer-in-Charge</t>
@@ -1039,94 +1127,214 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E11" s="26">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="F11" s="26">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="20">
+        <v>15</v>
+      </c>
+      <c r="E12" s="27">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="27">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1">
+      <c r="A13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="20">
+        <v>5</v>
+      </c>
+      <c r="E13" s="27">
+        <v>3000</v>
+      </c>
+      <c r="F13" s="27">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1">
+      <c r="A14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="20">
+        <v>200</v>
+      </c>
+      <c r="E14" s="27">
+        <v>135</v>
+      </c>
+      <c r="F14" s="27">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1">
+      <c r="A15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="20">
+        <v>6</v>
+      </c>
+      <c r="E15" s="27">
+        <v>650</v>
+      </c>
+      <c r="F15" s="27">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1">
+      <c r="A16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="20">
+        <v>5</v>
+      </c>
+      <c r="E16" s="27">
+        <v>2800</v>
+      </c>
+      <c r="F16" s="27">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
+      <c r="A17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="20">
+        <v>5</v>
+      </c>
+      <c r="E17" s="27">
+        <v>375</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1">
+      <c r="A18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="20">
+        <v>5</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1700</v>
+      </c>
+      <c r="F18" s="27">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1">
+      <c r="A19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="20">
+        <v>3</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1250</v>
+      </c>
+      <c r="F19" s="27">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1">
+      <c r="A20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="27">
+        <v>1930</v>
+      </c>
+      <c r="F20" s="27">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1">
+      <c r="A21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="20">
+        <v>5</v>
+      </c>
+      <c r="E21" s="27">
+        <v>300</v>
+      </c>
+      <c r="F21" s="27">
+        <v>1500</v>
+      </c>
     </row>
     <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A22" s="19"/>
@@ -1246,7 +1454,7 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F36" s="25" t="str">
         <f>SUM(F11:F35)</f>
@@ -1255,10 +1463,10 @@
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="52" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -1292,18 +1500,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="60" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="44" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E41" s="44"/>
       <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -1313,28 +1521,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="42" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C44" s="50"/>
       <c r="D44" s="57" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="58"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,16 +35,16 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-05-0175</t>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0166</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>May 11, 2020</t>
+    <t>March 25, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -68,102 +68,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>Safety Googles
-Plastic Frame, Non polarized, Lightweight and Durable fits over proscription glasses</t>
-  </si>
-  <si>
-    <t>S659</t>
-  </si>
-  <si>
-    <t>Safety Boots
-Dimension 26cm x 9.5cm x 33cm- Durable Lightweight, Water proof, Rubber</t>
-  </si>
-  <si>
-    <t>S661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safety Helmet with Rechargeable Light
-Color white- Class G Ansi Standard, Weight 700G, Rated Voltage: 33V, Rated Capacity: 3AH, Current for main light, Source 300mA, Current for Auxiliary, Light Source: 120MA, Light Times 15HRS </t>
-  </si>
-  <si>
-    <t>N001</t>
-  </si>
-  <si>
-    <t>N95 Mask
-(Filtration Effect 95%)
-(Nasal Clip: Adjustable)
-(Materials: Non Woven)</t>
-  </si>
-  <si>
-    <t>B009</t>
-  </si>
-  <si>
-    <t>Bedding - Blankets
-Single Beds: 36" x 75" cotton</t>
-  </si>
-  <si>
-    <t>B010</t>
-  </si>
-  <si>
-    <t>Beddings - Folding Beds
-(25" x 75") 
-High Density type 3 polyester double coated PVC 
-Rigid type
-Bed weight 7KGS</t>
-  </si>
-  <si>
-    <t>S664</t>
-  </si>
-  <si>
-    <t>Beddings - Pillows
-(20" x 30") 
-100% Cotton</t>
-  </si>
-  <si>
-    <t>S665</t>
-  </si>
-  <si>
-    <t>BP Monitor Apparatus
-(Power Supply: 4 pcs Batterry 1.5V AA 
-Ac Adapter Supply
-Input AC 100-240V 50/60Hz
-Measuring Method: oscillometric supply, Pressure 0-37.3kpa 0280mmhg
-Pulse 40-199 beats/min
-Accuracy: Static pressure +3mmhg 0.4kpa + 5% of the reading
-Category: Class</t>
-  </si>
-  <si>
-    <t>S666</t>
-  </si>
-  <si>
-    <t>Coffee Maker (8-10 cups)
-(8-10 cups) 
-Rated Voltage 220 x 240V
-Power 700W 
-gwt 2.63kg</t>
-  </si>
-  <si>
-    <t>S667</t>
-  </si>
-  <si>
-    <t>Emergency Light
-Voltage 220-240V  AC
-50/60 Hz 
-2 heads-24 pcs SMD LED 
-Battery 6  4.5Ah</t>
-  </si>
-  <si>
-    <t>S669</t>
-  </si>
-  <si>
-    <t>Raincoats
-Nylon Materials</t>
+    <t>S265</t>
+  </si>
+  <si>
+    <t>ream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy Paper, A4, 80gsm, 500sheets
+</t>
   </si>
   <si>
     <t>Total</t>
@@ -172,7 +84,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">To Support the Monitoring updates and Providing Technical Support and Assistance to the Region due to Taal Volcanic Eruption      </t>
+    <t xml:space="preserve">Test </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -187,7 +99,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>GILBERTO L. TUMAMAC</t>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -196,7 +108,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC -  Chief, LGMED</t>
+    <t>FAD Chief</t>
   </si>
   <si>
     <t>Officer-in-Charge</t>
@@ -403,6 +315,11 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -425,19 +342,14 @@
       </bottom>
     </border>
     <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -564,6 +476,102 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -580,14 +588,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -602,94 +602,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -995,7 +907,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1010,10 +922,10 @@
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="15.6">
       <c r="A1" s="1"/>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="18">
       <c r="A2" s="1"/>
@@ -1021,30 +933,30 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="17.4">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="15.6">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -1054,11 +966,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
@@ -1071,16 +983,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
@@ -1089,32 +1001,32 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -1127,214 +1039,94 @@
         <v>19</v>
       </c>
       <c r="D11" s="18">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E11" s="26">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="F11" s="26">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="20">
-        <v>15</v>
-      </c>
-      <c r="E12" s="27">
-        <v>1200</v>
-      </c>
-      <c r="F12" s="27">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
-      <c r="A13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="20">
-        <v>5</v>
-      </c>
-      <c r="E13" s="27">
-        <v>3000</v>
-      </c>
-      <c r="F13" s="27">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
-      <c r="A14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="20">
-        <v>200</v>
-      </c>
-      <c r="E14" s="27">
-        <v>135</v>
-      </c>
-      <c r="F14" s="27">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
-      <c r="A15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="20">
-        <v>6</v>
-      </c>
-      <c r="E15" s="27">
-        <v>650</v>
-      </c>
-      <c r="F15" s="27">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
-      <c r="A16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="20">
-        <v>5</v>
-      </c>
-      <c r="E16" s="27">
-        <v>2800</v>
-      </c>
-      <c r="F16" s="27">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
-      <c r="A17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="20">
-        <v>5</v>
-      </c>
-      <c r="E17" s="27">
-        <v>375</v>
-      </c>
-      <c r="F17" s="27">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
-      <c r="A18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="20">
-        <v>5</v>
-      </c>
-      <c r="E18" s="27">
-        <v>1700</v>
-      </c>
-      <c r="F18" s="27">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1">
-      <c r="A19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="20">
-        <v>3</v>
-      </c>
-      <c r="E19" s="27">
-        <v>1250</v>
-      </c>
-      <c r="F19" s="27">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1">
-      <c r="A20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="20">
-        <v>5</v>
-      </c>
-      <c r="E20" s="27">
-        <v>1930</v>
-      </c>
-      <c r="F20" s="27">
-        <v>9650</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1">
-      <c r="A21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="20">
-        <v>5</v>
-      </c>
-      <c r="E21" s="27">
-        <v>300</v>
-      </c>
-      <c r="F21" s="27">
-        <v>1500</v>
-      </c>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A22" s="19"/>
@@ -1454,7 +1246,7 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F36" s="25" t="str">
         <f>SUM(F11:F35)</f>
@@ -1462,94 +1254,107 @@
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
+      <c r="A37" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="53"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="53"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="15">
-      <c r="A40" s="54"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="48"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
-      <c r="B41" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
+      <c r="B41" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
+        <v>25</v>
+      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
+        <v>26</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
+  <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -1560,19 +1365,6 @@
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -111,7 +111,7 @@
     <t>Chief, FAD</t>
   </si>
   <si>
-    <t>Officer-in-Charge</t>
+    <t>Regional Director</t>
   </si>
 </sst>
 </file>
@@ -315,6 +315,33 @@
       </left>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -323,33 +350,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -440,101 +440,101 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,7 +838,7 @@
   <dimension ref="A1:WVN44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1231,10 +1231,10 @@
   <sheetData>
     <row r="1" spans="1:16134" customHeight="1" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="54"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:16134" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
@@ -1242,30 +1242,30 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:16134" customHeight="1" ht="18.75">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:16134" customHeight="1" ht="18.75">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:16134" customHeight="1" ht="15.75">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:16134" customHeight="1" ht="21">
       <c r="A6" s="3" t="s">
@@ -1275,11 +1275,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:16134" customHeight="1" ht="18">
       <c r="A7" s="5" t="s">
@@ -1292,16 +1292,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:16134" customHeight="1" ht="30.75">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1310,32 +1310,32 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:16134" customHeight="1" ht="16.5">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:16134" customHeight="1" ht="15.75">
-      <c r="A10" s="53"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:16134">
       <c r="A11" s="13" t="s">
@@ -1563,117 +1563,117 @@
       </c>
     </row>
     <row r="37" spans="1:16134" customHeight="1" ht="15.75">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" spans="1:16134" customHeight="1" ht="15.75">
-      <c r="A38" s="37"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:16134" customHeight="1" ht="15.75">
-      <c r="A39" s="37"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:16134" customHeight="1" ht="15.75">
-      <c r="A40" s="38"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="43"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
     </row>
     <row r="41" spans="1:16134" customHeight="1" ht="16.5">
       <c r="A41" s="25"/>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45" t="s">
+      <c r="C41" s="49"/>
+      <c r="D41" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
     </row>
     <row r="42" spans="1:16134" customHeight="1" ht="15.75">
       <c r="A42" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:16134" customHeight="1" ht="15.75">
       <c r="A43" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:16134" customHeight="1" ht="20.25">
       <c r="A44" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
     </row>
   </sheetData>
   <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -1649,7 +1649,7 @@
       <c r="F44" s="59"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="DD3C" sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:F43"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -111,7 +111,7 @@
     <t>Chief, FAD</t>
   </si>
   <si>
-    <t>Officer-in-Charge</t>
+    <t>Regional Director</t>
   </si>
 </sst>
 </file>
@@ -518,6 +518,12 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -529,12 +535,6 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,10 +835,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:WVN44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -849,425 +849,47 @@
     <col min="4" max="4" width="12.7109375" customWidth="true" style="0"/>
     <col min="5" max="5" width="17.140625" customWidth="true" style="0"/>
     <col min="6" max="6" width="18.28515625" customWidth="true" style="0"/>
-    <col min="257" max="257" width="15.28515625" customWidth="true" style="0"/>
-    <col min="258" max="258" width="16" customWidth="true" style="0"/>
-    <col min="259" max="259" width="42.5703125" customWidth="true" style="0"/>
-    <col min="260" max="260" width="12.7109375" customWidth="true" style="0"/>
-    <col min="261" max="261" width="17.140625" customWidth="true" style="0"/>
-    <col min="262" max="262" width="18.28515625" customWidth="true" style="0"/>
-    <col min="513" max="513" width="15.28515625" customWidth="true" style="0"/>
-    <col min="514" max="514" width="16" customWidth="true" style="0"/>
-    <col min="515" max="515" width="42.5703125" customWidth="true" style="0"/>
-    <col min="516" max="516" width="12.7109375" customWidth="true" style="0"/>
-    <col min="517" max="517" width="17.140625" customWidth="true" style="0"/>
-    <col min="518" max="518" width="18.28515625" customWidth="true" style="0"/>
-    <col min="769" max="769" width="15.28515625" customWidth="true" style="0"/>
-    <col min="770" max="770" width="16" customWidth="true" style="0"/>
-    <col min="771" max="771" width="42.5703125" customWidth="true" style="0"/>
-    <col min="772" max="772" width="12.7109375" customWidth="true" style="0"/>
-    <col min="773" max="773" width="17.140625" customWidth="true" style="0"/>
-    <col min="774" max="774" width="18.28515625" customWidth="true" style="0"/>
-    <col min="1025" max="1025" width="15.28515625" customWidth="true" style="0"/>
-    <col min="1026" max="1026" width="16" customWidth="true" style="0"/>
-    <col min="1027" max="1027" width="42.5703125" customWidth="true" style="0"/>
-    <col min="1028" max="1028" width="12.7109375" customWidth="true" style="0"/>
-    <col min="1029" max="1029" width="17.140625" customWidth="true" style="0"/>
-    <col min="1030" max="1030" width="18.28515625" customWidth="true" style="0"/>
-    <col min="1281" max="1281" width="15.28515625" customWidth="true" style="0"/>
-    <col min="1282" max="1282" width="16" customWidth="true" style="0"/>
-    <col min="1283" max="1283" width="42.5703125" customWidth="true" style="0"/>
-    <col min="1284" max="1284" width="12.7109375" customWidth="true" style="0"/>
-    <col min="1285" max="1285" width="17.140625" customWidth="true" style="0"/>
-    <col min="1286" max="1286" width="18.28515625" customWidth="true" style="0"/>
-    <col min="1537" max="1537" width="15.28515625" customWidth="true" style="0"/>
-    <col min="1538" max="1538" width="16" customWidth="true" style="0"/>
-    <col min="1539" max="1539" width="42.5703125" customWidth="true" style="0"/>
-    <col min="1540" max="1540" width="12.7109375" customWidth="true" style="0"/>
-    <col min="1541" max="1541" width="17.140625" customWidth="true" style="0"/>
-    <col min="1542" max="1542" width="18.28515625" customWidth="true" style="0"/>
-    <col min="1793" max="1793" width="15.28515625" customWidth="true" style="0"/>
-    <col min="1794" max="1794" width="16" customWidth="true" style="0"/>
-    <col min="1795" max="1795" width="42.5703125" customWidth="true" style="0"/>
-    <col min="1796" max="1796" width="12.7109375" customWidth="true" style="0"/>
-    <col min="1797" max="1797" width="17.140625" customWidth="true" style="0"/>
-    <col min="1798" max="1798" width="18.28515625" customWidth="true" style="0"/>
-    <col min="2049" max="2049" width="15.28515625" customWidth="true" style="0"/>
-    <col min="2050" max="2050" width="16" customWidth="true" style="0"/>
-    <col min="2051" max="2051" width="42.5703125" customWidth="true" style="0"/>
-    <col min="2052" max="2052" width="12.7109375" customWidth="true" style="0"/>
-    <col min="2053" max="2053" width="17.140625" customWidth="true" style="0"/>
-    <col min="2054" max="2054" width="18.28515625" customWidth="true" style="0"/>
-    <col min="2305" max="2305" width="15.28515625" customWidth="true" style="0"/>
-    <col min="2306" max="2306" width="16" customWidth="true" style="0"/>
-    <col min="2307" max="2307" width="42.5703125" customWidth="true" style="0"/>
-    <col min="2308" max="2308" width="12.7109375" customWidth="true" style="0"/>
-    <col min="2309" max="2309" width="17.140625" customWidth="true" style="0"/>
-    <col min="2310" max="2310" width="18.28515625" customWidth="true" style="0"/>
-    <col min="2561" max="2561" width="15.28515625" customWidth="true" style="0"/>
-    <col min="2562" max="2562" width="16" customWidth="true" style="0"/>
-    <col min="2563" max="2563" width="42.5703125" customWidth="true" style="0"/>
-    <col min="2564" max="2564" width="12.7109375" customWidth="true" style="0"/>
-    <col min="2565" max="2565" width="17.140625" customWidth="true" style="0"/>
-    <col min="2566" max="2566" width="18.28515625" customWidth="true" style="0"/>
-    <col min="2817" max="2817" width="15.28515625" customWidth="true" style="0"/>
-    <col min="2818" max="2818" width="16" customWidth="true" style="0"/>
-    <col min="2819" max="2819" width="42.5703125" customWidth="true" style="0"/>
-    <col min="2820" max="2820" width="12.7109375" customWidth="true" style="0"/>
-    <col min="2821" max="2821" width="17.140625" customWidth="true" style="0"/>
-    <col min="2822" max="2822" width="18.28515625" customWidth="true" style="0"/>
-    <col min="3073" max="3073" width="15.28515625" customWidth="true" style="0"/>
-    <col min="3074" max="3074" width="16" customWidth="true" style="0"/>
-    <col min="3075" max="3075" width="42.5703125" customWidth="true" style="0"/>
-    <col min="3076" max="3076" width="12.7109375" customWidth="true" style="0"/>
-    <col min="3077" max="3077" width="17.140625" customWidth="true" style="0"/>
-    <col min="3078" max="3078" width="18.28515625" customWidth="true" style="0"/>
-    <col min="3329" max="3329" width="15.28515625" customWidth="true" style="0"/>
-    <col min="3330" max="3330" width="16" customWidth="true" style="0"/>
-    <col min="3331" max="3331" width="42.5703125" customWidth="true" style="0"/>
-    <col min="3332" max="3332" width="12.7109375" customWidth="true" style="0"/>
-    <col min="3333" max="3333" width="17.140625" customWidth="true" style="0"/>
-    <col min="3334" max="3334" width="18.28515625" customWidth="true" style="0"/>
-    <col min="3585" max="3585" width="15.28515625" customWidth="true" style="0"/>
-    <col min="3586" max="3586" width="16" customWidth="true" style="0"/>
-    <col min="3587" max="3587" width="42.5703125" customWidth="true" style="0"/>
-    <col min="3588" max="3588" width="12.7109375" customWidth="true" style="0"/>
-    <col min="3589" max="3589" width="17.140625" customWidth="true" style="0"/>
-    <col min="3590" max="3590" width="18.28515625" customWidth="true" style="0"/>
-    <col min="3841" max="3841" width="15.28515625" customWidth="true" style="0"/>
-    <col min="3842" max="3842" width="16" customWidth="true" style="0"/>
-    <col min="3843" max="3843" width="42.5703125" customWidth="true" style="0"/>
-    <col min="3844" max="3844" width="12.7109375" customWidth="true" style="0"/>
-    <col min="3845" max="3845" width="17.140625" customWidth="true" style="0"/>
-    <col min="3846" max="3846" width="18.28515625" customWidth="true" style="0"/>
-    <col min="4097" max="4097" width="15.28515625" customWidth="true" style="0"/>
-    <col min="4098" max="4098" width="16" customWidth="true" style="0"/>
-    <col min="4099" max="4099" width="42.5703125" customWidth="true" style="0"/>
-    <col min="4100" max="4100" width="12.7109375" customWidth="true" style="0"/>
-    <col min="4101" max="4101" width="17.140625" customWidth="true" style="0"/>
-    <col min="4102" max="4102" width="18.28515625" customWidth="true" style="0"/>
-    <col min="4353" max="4353" width="15.28515625" customWidth="true" style="0"/>
-    <col min="4354" max="4354" width="16" customWidth="true" style="0"/>
-    <col min="4355" max="4355" width="42.5703125" customWidth="true" style="0"/>
-    <col min="4356" max="4356" width="12.7109375" customWidth="true" style="0"/>
-    <col min="4357" max="4357" width="17.140625" customWidth="true" style="0"/>
-    <col min="4358" max="4358" width="18.28515625" customWidth="true" style="0"/>
-    <col min="4609" max="4609" width="15.28515625" customWidth="true" style="0"/>
-    <col min="4610" max="4610" width="16" customWidth="true" style="0"/>
-    <col min="4611" max="4611" width="42.5703125" customWidth="true" style="0"/>
-    <col min="4612" max="4612" width="12.7109375" customWidth="true" style="0"/>
-    <col min="4613" max="4613" width="17.140625" customWidth="true" style="0"/>
-    <col min="4614" max="4614" width="18.28515625" customWidth="true" style="0"/>
-    <col min="4865" max="4865" width="15.28515625" customWidth="true" style="0"/>
-    <col min="4866" max="4866" width="16" customWidth="true" style="0"/>
-    <col min="4867" max="4867" width="42.5703125" customWidth="true" style="0"/>
-    <col min="4868" max="4868" width="12.7109375" customWidth="true" style="0"/>
-    <col min="4869" max="4869" width="17.140625" customWidth="true" style="0"/>
-    <col min="4870" max="4870" width="18.28515625" customWidth="true" style="0"/>
-    <col min="5121" max="5121" width="15.28515625" customWidth="true" style="0"/>
-    <col min="5122" max="5122" width="16" customWidth="true" style="0"/>
-    <col min="5123" max="5123" width="42.5703125" customWidth="true" style="0"/>
-    <col min="5124" max="5124" width="12.7109375" customWidth="true" style="0"/>
-    <col min="5125" max="5125" width="17.140625" customWidth="true" style="0"/>
-    <col min="5126" max="5126" width="18.28515625" customWidth="true" style="0"/>
-    <col min="5377" max="5377" width="15.28515625" customWidth="true" style="0"/>
-    <col min="5378" max="5378" width="16" customWidth="true" style="0"/>
-    <col min="5379" max="5379" width="42.5703125" customWidth="true" style="0"/>
-    <col min="5380" max="5380" width="12.7109375" customWidth="true" style="0"/>
-    <col min="5381" max="5381" width="17.140625" customWidth="true" style="0"/>
-    <col min="5382" max="5382" width="18.28515625" customWidth="true" style="0"/>
-    <col min="5633" max="5633" width="15.28515625" customWidth="true" style="0"/>
-    <col min="5634" max="5634" width="16" customWidth="true" style="0"/>
-    <col min="5635" max="5635" width="42.5703125" customWidth="true" style="0"/>
-    <col min="5636" max="5636" width="12.7109375" customWidth="true" style="0"/>
-    <col min="5637" max="5637" width="17.140625" customWidth="true" style="0"/>
-    <col min="5638" max="5638" width="18.28515625" customWidth="true" style="0"/>
-    <col min="5889" max="5889" width="15.28515625" customWidth="true" style="0"/>
-    <col min="5890" max="5890" width="16" customWidth="true" style="0"/>
-    <col min="5891" max="5891" width="42.5703125" customWidth="true" style="0"/>
-    <col min="5892" max="5892" width="12.7109375" customWidth="true" style="0"/>
-    <col min="5893" max="5893" width="17.140625" customWidth="true" style="0"/>
-    <col min="5894" max="5894" width="18.28515625" customWidth="true" style="0"/>
-    <col min="6145" max="6145" width="15.28515625" customWidth="true" style="0"/>
-    <col min="6146" max="6146" width="16" customWidth="true" style="0"/>
-    <col min="6147" max="6147" width="42.5703125" customWidth="true" style="0"/>
-    <col min="6148" max="6148" width="12.7109375" customWidth="true" style="0"/>
-    <col min="6149" max="6149" width="17.140625" customWidth="true" style="0"/>
-    <col min="6150" max="6150" width="18.28515625" customWidth="true" style="0"/>
-    <col min="6401" max="6401" width="15.28515625" customWidth="true" style="0"/>
-    <col min="6402" max="6402" width="16" customWidth="true" style="0"/>
-    <col min="6403" max="6403" width="42.5703125" customWidth="true" style="0"/>
-    <col min="6404" max="6404" width="12.7109375" customWidth="true" style="0"/>
-    <col min="6405" max="6405" width="17.140625" customWidth="true" style="0"/>
-    <col min="6406" max="6406" width="18.28515625" customWidth="true" style="0"/>
-    <col min="6657" max="6657" width="15.28515625" customWidth="true" style="0"/>
-    <col min="6658" max="6658" width="16" customWidth="true" style="0"/>
-    <col min="6659" max="6659" width="42.5703125" customWidth="true" style="0"/>
-    <col min="6660" max="6660" width="12.7109375" customWidth="true" style="0"/>
-    <col min="6661" max="6661" width="17.140625" customWidth="true" style="0"/>
-    <col min="6662" max="6662" width="18.28515625" customWidth="true" style="0"/>
-    <col min="6913" max="6913" width="15.28515625" customWidth="true" style="0"/>
-    <col min="6914" max="6914" width="16" customWidth="true" style="0"/>
-    <col min="6915" max="6915" width="42.5703125" customWidth="true" style="0"/>
-    <col min="6916" max="6916" width="12.7109375" customWidth="true" style="0"/>
-    <col min="6917" max="6917" width="17.140625" customWidth="true" style="0"/>
-    <col min="6918" max="6918" width="18.28515625" customWidth="true" style="0"/>
-    <col min="7169" max="7169" width="15.28515625" customWidth="true" style="0"/>
-    <col min="7170" max="7170" width="16" customWidth="true" style="0"/>
-    <col min="7171" max="7171" width="42.5703125" customWidth="true" style="0"/>
-    <col min="7172" max="7172" width="12.7109375" customWidth="true" style="0"/>
-    <col min="7173" max="7173" width="17.140625" customWidth="true" style="0"/>
-    <col min="7174" max="7174" width="18.28515625" customWidth="true" style="0"/>
-    <col min="7425" max="7425" width="15.28515625" customWidth="true" style="0"/>
-    <col min="7426" max="7426" width="16" customWidth="true" style="0"/>
-    <col min="7427" max="7427" width="42.5703125" customWidth="true" style="0"/>
-    <col min="7428" max="7428" width="12.7109375" customWidth="true" style="0"/>
-    <col min="7429" max="7429" width="17.140625" customWidth="true" style="0"/>
-    <col min="7430" max="7430" width="18.28515625" customWidth="true" style="0"/>
-    <col min="7681" max="7681" width="15.28515625" customWidth="true" style="0"/>
-    <col min="7682" max="7682" width="16" customWidth="true" style="0"/>
-    <col min="7683" max="7683" width="42.5703125" customWidth="true" style="0"/>
-    <col min="7684" max="7684" width="12.7109375" customWidth="true" style="0"/>
-    <col min="7685" max="7685" width="17.140625" customWidth="true" style="0"/>
-    <col min="7686" max="7686" width="18.28515625" customWidth="true" style="0"/>
-    <col min="7937" max="7937" width="15.28515625" customWidth="true" style="0"/>
-    <col min="7938" max="7938" width="16" customWidth="true" style="0"/>
-    <col min="7939" max="7939" width="42.5703125" customWidth="true" style="0"/>
-    <col min="7940" max="7940" width="12.7109375" customWidth="true" style="0"/>
-    <col min="7941" max="7941" width="17.140625" customWidth="true" style="0"/>
-    <col min="7942" max="7942" width="18.28515625" customWidth="true" style="0"/>
-    <col min="8193" max="8193" width="15.28515625" customWidth="true" style="0"/>
-    <col min="8194" max="8194" width="16" customWidth="true" style="0"/>
-    <col min="8195" max="8195" width="42.5703125" customWidth="true" style="0"/>
-    <col min="8196" max="8196" width="12.7109375" customWidth="true" style="0"/>
-    <col min="8197" max="8197" width="17.140625" customWidth="true" style="0"/>
-    <col min="8198" max="8198" width="18.28515625" customWidth="true" style="0"/>
-    <col min="8449" max="8449" width="15.28515625" customWidth="true" style="0"/>
-    <col min="8450" max="8450" width="16" customWidth="true" style="0"/>
-    <col min="8451" max="8451" width="42.5703125" customWidth="true" style="0"/>
-    <col min="8452" max="8452" width="12.7109375" customWidth="true" style="0"/>
-    <col min="8453" max="8453" width="17.140625" customWidth="true" style="0"/>
-    <col min="8454" max="8454" width="18.28515625" customWidth="true" style="0"/>
-    <col min="8705" max="8705" width="15.28515625" customWidth="true" style="0"/>
-    <col min="8706" max="8706" width="16" customWidth="true" style="0"/>
-    <col min="8707" max="8707" width="42.5703125" customWidth="true" style="0"/>
-    <col min="8708" max="8708" width="12.7109375" customWidth="true" style="0"/>
-    <col min="8709" max="8709" width="17.140625" customWidth="true" style="0"/>
-    <col min="8710" max="8710" width="18.28515625" customWidth="true" style="0"/>
-    <col min="8961" max="8961" width="15.28515625" customWidth="true" style="0"/>
-    <col min="8962" max="8962" width="16" customWidth="true" style="0"/>
-    <col min="8963" max="8963" width="42.5703125" customWidth="true" style="0"/>
-    <col min="8964" max="8964" width="12.7109375" customWidth="true" style="0"/>
-    <col min="8965" max="8965" width="17.140625" customWidth="true" style="0"/>
-    <col min="8966" max="8966" width="18.28515625" customWidth="true" style="0"/>
-    <col min="9217" max="9217" width="15.28515625" customWidth="true" style="0"/>
-    <col min="9218" max="9218" width="16" customWidth="true" style="0"/>
-    <col min="9219" max="9219" width="42.5703125" customWidth="true" style="0"/>
-    <col min="9220" max="9220" width="12.7109375" customWidth="true" style="0"/>
-    <col min="9221" max="9221" width="17.140625" customWidth="true" style="0"/>
-    <col min="9222" max="9222" width="18.28515625" customWidth="true" style="0"/>
-    <col min="9473" max="9473" width="15.28515625" customWidth="true" style="0"/>
-    <col min="9474" max="9474" width="16" customWidth="true" style="0"/>
-    <col min="9475" max="9475" width="42.5703125" customWidth="true" style="0"/>
-    <col min="9476" max="9476" width="12.7109375" customWidth="true" style="0"/>
-    <col min="9477" max="9477" width="17.140625" customWidth="true" style="0"/>
-    <col min="9478" max="9478" width="18.28515625" customWidth="true" style="0"/>
-    <col min="9729" max="9729" width="15.28515625" customWidth="true" style="0"/>
-    <col min="9730" max="9730" width="16" customWidth="true" style="0"/>
-    <col min="9731" max="9731" width="42.5703125" customWidth="true" style="0"/>
-    <col min="9732" max="9732" width="12.7109375" customWidth="true" style="0"/>
-    <col min="9733" max="9733" width="17.140625" customWidth="true" style="0"/>
-    <col min="9734" max="9734" width="18.28515625" customWidth="true" style="0"/>
-    <col min="9985" max="9985" width="15.28515625" customWidth="true" style="0"/>
-    <col min="9986" max="9986" width="16" customWidth="true" style="0"/>
-    <col min="9987" max="9987" width="42.5703125" customWidth="true" style="0"/>
-    <col min="9988" max="9988" width="12.7109375" customWidth="true" style="0"/>
-    <col min="9989" max="9989" width="17.140625" customWidth="true" style="0"/>
-    <col min="9990" max="9990" width="18.28515625" customWidth="true" style="0"/>
-    <col min="10241" max="10241" width="15.28515625" customWidth="true" style="0"/>
-    <col min="10242" max="10242" width="16" customWidth="true" style="0"/>
-    <col min="10243" max="10243" width="42.5703125" customWidth="true" style="0"/>
-    <col min="10244" max="10244" width="12.7109375" customWidth="true" style="0"/>
-    <col min="10245" max="10245" width="17.140625" customWidth="true" style="0"/>
-    <col min="10246" max="10246" width="18.28515625" customWidth="true" style="0"/>
-    <col min="10497" max="10497" width="15.28515625" customWidth="true" style="0"/>
-    <col min="10498" max="10498" width="16" customWidth="true" style="0"/>
-    <col min="10499" max="10499" width="42.5703125" customWidth="true" style="0"/>
-    <col min="10500" max="10500" width="12.7109375" customWidth="true" style="0"/>
-    <col min="10501" max="10501" width="17.140625" customWidth="true" style="0"/>
-    <col min="10502" max="10502" width="18.28515625" customWidth="true" style="0"/>
-    <col min="10753" max="10753" width="15.28515625" customWidth="true" style="0"/>
-    <col min="10754" max="10754" width="16" customWidth="true" style="0"/>
-    <col min="10755" max="10755" width="42.5703125" customWidth="true" style="0"/>
-    <col min="10756" max="10756" width="12.7109375" customWidth="true" style="0"/>
-    <col min="10757" max="10757" width="17.140625" customWidth="true" style="0"/>
-    <col min="10758" max="10758" width="18.28515625" customWidth="true" style="0"/>
-    <col min="11009" max="11009" width="15.28515625" customWidth="true" style="0"/>
-    <col min="11010" max="11010" width="16" customWidth="true" style="0"/>
-    <col min="11011" max="11011" width="42.5703125" customWidth="true" style="0"/>
-    <col min="11012" max="11012" width="12.7109375" customWidth="true" style="0"/>
-    <col min="11013" max="11013" width="17.140625" customWidth="true" style="0"/>
-    <col min="11014" max="11014" width="18.28515625" customWidth="true" style="0"/>
-    <col min="11265" max="11265" width="15.28515625" customWidth="true" style="0"/>
-    <col min="11266" max="11266" width="16" customWidth="true" style="0"/>
-    <col min="11267" max="11267" width="42.5703125" customWidth="true" style="0"/>
-    <col min="11268" max="11268" width="12.7109375" customWidth="true" style="0"/>
-    <col min="11269" max="11269" width="17.140625" customWidth="true" style="0"/>
-    <col min="11270" max="11270" width="18.28515625" customWidth="true" style="0"/>
-    <col min="11521" max="11521" width="15.28515625" customWidth="true" style="0"/>
-    <col min="11522" max="11522" width="16" customWidth="true" style="0"/>
-    <col min="11523" max="11523" width="42.5703125" customWidth="true" style="0"/>
-    <col min="11524" max="11524" width="12.7109375" customWidth="true" style="0"/>
-    <col min="11525" max="11525" width="17.140625" customWidth="true" style="0"/>
-    <col min="11526" max="11526" width="18.28515625" customWidth="true" style="0"/>
-    <col min="11777" max="11777" width="15.28515625" customWidth="true" style="0"/>
-    <col min="11778" max="11778" width="16" customWidth="true" style="0"/>
-    <col min="11779" max="11779" width="42.5703125" customWidth="true" style="0"/>
-    <col min="11780" max="11780" width="12.7109375" customWidth="true" style="0"/>
-    <col min="11781" max="11781" width="17.140625" customWidth="true" style="0"/>
-    <col min="11782" max="11782" width="18.28515625" customWidth="true" style="0"/>
-    <col min="12033" max="12033" width="15.28515625" customWidth="true" style="0"/>
-    <col min="12034" max="12034" width="16" customWidth="true" style="0"/>
-    <col min="12035" max="12035" width="42.5703125" customWidth="true" style="0"/>
-    <col min="12036" max="12036" width="12.7109375" customWidth="true" style="0"/>
-    <col min="12037" max="12037" width="17.140625" customWidth="true" style="0"/>
-    <col min="12038" max="12038" width="18.28515625" customWidth="true" style="0"/>
-    <col min="12289" max="12289" width="15.28515625" customWidth="true" style="0"/>
-    <col min="12290" max="12290" width="16" customWidth="true" style="0"/>
-    <col min="12291" max="12291" width="42.5703125" customWidth="true" style="0"/>
-    <col min="12292" max="12292" width="12.7109375" customWidth="true" style="0"/>
-    <col min="12293" max="12293" width="17.140625" customWidth="true" style="0"/>
-    <col min="12294" max="12294" width="18.28515625" customWidth="true" style="0"/>
-    <col min="12545" max="12545" width="15.28515625" customWidth="true" style="0"/>
-    <col min="12546" max="12546" width="16" customWidth="true" style="0"/>
-    <col min="12547" max="12547" width="42.5703125" customWidth="true" style="0"/>
-    <col min="12548" max="12548" width="12.7109375" customWidth="true" style="0"/>
-    <col min="12549" max="12549" width="17.140625" customWidth="true" style="0"/>
-    <col min="12550" max="12550" width="18.28515625" customWidth="true" style="0"/>
-    <col min="12801" max="12801" width="15.28515625" customWidth="true" style="0"/>
-    <col min="12802" max="12802" width="16" customWidth="true" style="0"/>
-    <col min="12803" max="12803" width="42.5703125" customWidth="true" style="0"/>
-    <col min="12804" max="12804" width="12.7109375" customWidth="true" style="0"/>
-    <col min="12805" max="12805" width="17.140625" customWidth="true" style="0"/>
-    <col min="12806" max="12806" width="18.28515625" customWidth="true" style="0"/>
-    <col min="13057" max="13057" width="15.28515625" customWidth="true" style="0"/>
-    <col min="13058" max="13058" width="16" customWidth="true" style="0"/>
-    <col min="13059" max="13059" width="42.5703125" customWidth="true" style="0"/>
-    <col min="13060" max="13060" width="12.7109375" customWidth="true" style="0"/>
-    <col min="13061" max="13061" width="17.140625" customWidth="true" style="0"/>
-    <col min="13062" max="13062" width="18.28515625" customWidth="true" style="0"/>
-    <col min="13313" max="13313" width="15.28515625" customWidth="true" style="0"/>
-    <col min="13314" max="13314" width="16" customWidth="true" style="0"/>
-    <col min="13315" max="13315" width="42.5703125" customWidth="true" style="0"/>
-    <col min="13316" max="13316" width="12.7109375" customWidth="true" style="0"/>
-    <col min="13317" max="13317" width="17.140625" customWidth="true" style="0"/>
-    <col min="13318" max="13318" width="18.28515625" customWidth="true" style="0"/>
-    <col min="13569" max="13569" width="15.28515625" customWidth="true" style="0"/>
-    <col min="13570" max="13570" width="16" customWidth="true" style="0"/>
-    <col min="13571" max="13571" width="42.5703125" customWidth="true" style="0"/>
-    <col min="13572" max="13572" width="12.7109375" customWidth="true" style="0"/>
-    <col min="13573" max="13573" width="17.140625" customWidth="true" style="0"/>
-    <col min="13574" max="13574" width="18.28515625" customWidth="true" style="0"/>
-    <col min="13825" max="13825" width="15.28515625" customWidth="true" style="0"/>
-    <col min="13826" max="13826" width="16" customWidth="true" style="0"/>
-    <col min="13827" max="13827" width="42.5703125" customWidth="true" style="0"/>
-    <col min="13828" max="13828" width="12.7109375" customWidth="true" style="0"/>
-    <col min="13829" max="13829" width="17.140625" customWidth="true" style="0"/>
-    <col min="13830" max="13830" width="18.28515625" customWidth="true" style="0"/>
-    <col min="14081" max="14081" width="15.28515625" customWidth="true" style="0"/>
-    <col min="14082" max="14082" width="16" customWidth="true" style="0"/>
-    <col min="14083" max="14083" width="42.5703125" customWidth="true" style="0"/>
-    <col min="14084" max="14084" width="12.7109375" customWidth="true" style="0"/>
-    <col min="14085" max="14085" width="17.140625" customWidth="true" style="0"/>
-    <col min="14086" max="14086" width="18.28515625" customWidth="true" style="0"/>
-    <col min="14337" max="14337" width="15.28515625" customWidth="true" style="0"/>
-    <col min="14338" max="14338" width="16" customWidth="true" style="0"/>
-    <col min="14339" max="14339" width="42.5703125" customWidth="true" style="0"/>
-    <col min="14340" max="14340" width="12.7109375" customWidth="true" style="0"/>
-    <col min="14341" max="14341" width="17.140625" customWidth="true" style="0"/>
-    <col min="14342" max="14342" width="18.28515625" customWidth="true" style="0"/>
-    <col min="14593" max="14593" width="15.28515625" customWidth="true" style="0"/>
-    <col min="14594" max="14594" width="16" customWidth="true" style="0"/>
-    <col min="14595" max="14595" width="42.5703125" customWidth="true" style="0"/>
-    <col min="14596" max="14596" width="12.7109375" customWidth="true" style="0"/>
-    <col min="14597" max="14597" width="17.140625" customWidth="true" style="0"/>
-    <col min="14598" max="14598" width="18.28515625" customWidth="true" style="0"/>
-    <col min="14849" max="14849" width="15.28515625" customWidth="true" style="0"/>
-    <col min="14850" max="14850" width="16" customWidth="true" style="0"/>
-    <col min="14851" max="14851" width="42.5703125" customWidth="true" style="0"/>
-    <col min="14852" max="14852" width="12.7109375" customWidth="true" style="0"/>
-    <col min="14853" max="14853" width="17.140625" customWidth="true" style="0"/>
-    <col min="14854" max="14854" width="18.28515625" customWidth="true" style="0"/>
-    <col min="15105" max="15105" width="15.28515625" customWidth="true" style="0"/>
-    <col min="15106" max="15106" width="16" customWidth="true" style="0"/>
-    <col min="15107" max="15107" width="42.5703125" customWidth="true" style="0"/>
-    <col min="15108" max="15108" width="12.7109375" customWidth="true" style="0"/>
-    <col min="15109" max="15109" width="17.140625" customWidth="true" style="0"/>
-    <col min="15110" max="15110" width="18.28515625" customWidth="true" style="0"/>
-    <col min="15361" max="15361" width="15.28515625" customWidth="true" style="0"/>
-    <col min="15362" max="15362" width="16" customWidth="true" style="0"/>
-    <col min="15363" max="15363" width="42.5703125" customWidth="true" style="0"/>
-    <col min="15364" max="15364" width="12.7109375" customWidth="true" style="0"/>
-    <col min="15365" max="15365" width="17.140625" customWidth="true" style="0"/>
-    <col min="15366" max="15366" width="18.28515625" customWidth="true" style="0"/>
-    <col min="15617" max="15617" width="15.28515625" customWidth="true" style="0"/>
-    <col min="15618" max="15618" width="16" customWidth="true" style="0"/>
-    <col min="15619" max="15619" width="42.5703125" customWidth="true" style="0"/>
-    <col min="15620" max="15620" width="12.7109375" customWidth="true" style="0"/>
-    <col min="15621" max="15621" width="17.140625" customWidth="true" style="0"/>
-    <col min="15622" max="15622" width="18.28515625" customWidth="true" style="0"/>
-    <col min="15873" max="15873" width="15.28515625" customWidth="true" style="0"/>
-    <col min="15874" max="15874" width="16" customWidth="true" style="0"/>
-    <col min="15875" max="15875" width="42.5703125" customWidth="true" style="0"/>
-    <col min="15876" max="15876" width="12.7109375" customWidth="true" style="0"/>
-    <col min="15877" max="15877" width="17.140625" customWidth="true" style="0"/>
-    <col min="15878" max="15878" width="18.28515625" customWidth="true" style="0"/>
-    <col min="16129" max="16129" width="15.28515625" customWidth="true" style="0"/>
-    <col min="16130" max="16130" width="16" customWidth="true" style="0"/>
-    <col min="16131" max="16131" width="42.5703125" customWidth="true" style="0"/>
-    <col min="16132" max="16132" width="12.7109375" customWidth="true" style="0"/>
-    <col min="16133" max="16133" width="17.140625" customWidth="true" style="0"/>
-    <col min="16134" max="16134" width="18.28515625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16134" customHeight="1" ht="15.75">
+    <row r="1" spans="1:6" customHeight="1" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="54"/>
-    </row>
-    <row r="2" spans="1:16134" customHeight="1" ht="18.75">
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:16134" customHeight="1" ht="18.75">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-    </row>
-    <row r="4" spans="1:16134" customHeight="1" ht="18.75">
-      <c r="A4" s="55" t="s">
+    <row r="3" spans="1:6" customHeight="1" ht="18.75">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" customHeight="1" ht="18.75">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-    </row>
-    <row r="5" spans="1:16134" customHeight="1" ht="15.75">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" spans="1:16134" customHeight="1" ht="21">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" customHeight="1" ht="15.75">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+    </row>
+    <row r="6" spans="1:6" customHeight="1" ht="21">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1275,13 +897,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-    </row>
-    <row r="7" spans="1:16134" customHeight="1" ht="18">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="1:6" customHeight="1" ht="18">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1292,14 +914,14 @@
         <v>7</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16134" customHeight="1" ht="30.75">
+    <row r="8" spans="1:6" customHeight="1" ht="30.75">
       <c r="A8" s="50"/>
       <c r="B8" s="51"/>
       <c r="C8" s="9" t="s">
@@ -1309,7 +931,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:16134" customHeight="1" ht="16.5">
+    <row r="9" spans="1:6" customHeight="1" ht="16.5">
       <c r="A9" s="52" t="s">
         <v>11</v>
       </c>
@@ -1329,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:16134" customHeight="1" ht="15.75">
+    <row r="10" spans="1:6" customHeight="1" ht="15.75">
       <c r="A10" s="53"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -1337,7 +959,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:16134">
+    <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +979,7 @@
         <v>9462.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16134" customHeight="1" ht="30">
+    <row r="12" spans="1:6" customHeight="1" ht="30">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
@@ -1365,7 +987,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:16134" customHeight="1" ht="30">
+    <row r="13" spans="1:6" customHeight="1" ht="30">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -1373,7 +995,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:16134" customHeight="1" ht="30">
+    <row r="14" spans="1:6" customHeight="1" ht="30">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
@@ -1381,7 +1003,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:16134" customHeight="1" ht="30">
+    <row r="15" spans="1:6" customHeight="1" ht="30">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
@@ -1389,7 +1011,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:16134" customHeight="1" ht="30">
+    <row r="16" spans="1:6" customHeight="1" ht="30">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -1397,7 +1019,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:16134" customHeight="1" ht="30">
+    <row r="17" spans="1:6" customHeight="1" ht="30">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
@@ -1405,7 +1027,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:16134" customHeight="1" ht="30">
+    <row r="18" spans="1:6" customHeight="1" ht="30">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -1413,7 +1035,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:16134" customHeight="1" ht="30">
+    <row r="19" spans="1:6" customHeight="1" ht="30">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
@@ -1421,7 +1043,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="1:16134" customHeight="1" ht="30">
+    <row r="20" spans="1:6" customHeight="1" ht="30">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -1429,7 +1051,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:16134" customHeight="1" ht="30">
+    <row r="21" spans="1:6" customHeight="1" ht="30">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -1437,7 +1059,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:16134" customHeight="1" ht="30">
+    <row r="22" spans="1:6" customHeight="1" ht="30">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -1445,7 +1067,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:16134" customHeight="1" ht="30">
+    <row r="23" spans="1:6" customHeight="1" ht="30">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -1453,7 +1075,7 @@
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="1:16134" customHeight="1" ht="30">
+    <row r="24" spans="1:6" customHeight="1" ht="30">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -1461,7 +1083,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="1:16134" customHeight="1" ht="30">
+    <row r="25" spans="1:6" customHeight="1" ht="30">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -1469,7 +1091,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="1:16134" customHeight="1" ht="30">
+    <row r="26" spans="1:6" customHeight="1" ht="30">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -1477,7 +1099,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:16134" customHeight="1" ht="30">
+    <row r="27" spans="1:6" customHeight="1" ht="30">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -1485,7 +1107,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:16134" customHeight="1" ht="30">
+    <row r="28" spans="1:6" customHeight="1" ht="30">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -1493,7 +1115,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:16134" customHeight="1" ht="30">
+    <row r="29" spans="1:6" customHeight="1" ht="30">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -1501,7 +1123,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="1:16134" customHeight="1" ht="30">
+    <row r="30" spans="1:6" customHeight="1" ht="30">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
@@ -1509,7 +1131,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" spans="1:16134" customHeight="1" ht="30">
+    <row r="31" spans="1:6" customHeight="1" ht="30">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -1517,7 +1139,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
     </row>
-    <row r="32" spans="1:16134" customHeight="1" ht="30">
+    <row r="32" spans="1:6" customHeight="1" ht="30">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
@@ -1525,7 +1147,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
     </row>
-    <row r="33" spans="1:16134" customHeight="1" ht="30">
+    <row r="33" spans="1:6" customHeight="1" ht="30">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
@@ -1533,7 +1155,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
     </row>
-    <row r="34" spans="1:16134" customHeight="1" ht="30">
+    <row r="34" spans="1:6" customHeight="1" ht="30">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -1541,7 +1163,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="1:16134" customHeight="1" ht="30">
+    <row r="35" spans="1:6" customHeight="1" ht="30">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -1549,7 +1171,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
     </row>
-    <row r="36" spans="1:16134" customHeight="1" ht="21.75">
+    <row r="36" spans="1:6" customHeight="1" ht="21.75">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -1562,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16134" customHeight="1" ht="15.75">
+    <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="36" t="s">
         <v>21</v>
       </c>
@@ -1574,7 +1196,7 @@
       <c r="E37" s="39"/>
       <c r="F37" s="40"/>
     </row>
-    <row r="38" spans="1:16134" customHeight="1" ht="15.75">
+    <row r="38" spans="1:6" customHeight="1" ht="15.75">
       <c r="A38" s="37"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -1582,7 +1204,7 @@
       <c r="E38" s="41"/>
       <c r="F38" s="42"/>
     </row>
-    <row r="39" spans="1:16134" customHeight="1" ht="15.75">
+    <row r="39" spans="1:6" customHeight="1" ht="15.75">
       <c r="A39" s="37"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -1590,7 +1212,7 @@
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:16134" customHeight="1" ht="15.75">
+    <row r="40" spans="1:6" customHeight="1" ht="15.75">
       <c r="A40" s="38"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -1598,7 +1220,7 @@
       <c r="E40" s="31"/>
       <c r="F40" s="43"/>
     </row>
-    <row r="41" spans="1:16134" customHeight="1" ht="16.5">
+    <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="25"/>
       <c r="B41" s="44" t="s">
         <v>23</v>
@@ -1610,7 +1232,7 @@
       <c r="E41" s="45"/>
       <c r="F41" s="46"/>
     </row>
-    <row r="42" spans="1:16134" customHeight="1" ht="15.75">
+    <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="26" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1242,7 @@
       <c r="E42" s="48"/>
       <c r="F42" s="49"/>
     </row>
-    <row r="43" spans="1:16134" customHeight="1" ht="15.75">
+    <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="26" t="s">
         <v>26</v>
       </c>
@@ -1634,7 +1256,7 @@
       <c r="E43" s="29"/>
       <c r="F43" s="30"/>
     </row>
-    <row r="44" spans="1:16134" customHeight="1" ht="20.25">
+    <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="27" t="s">
         <v>29</v>
       </c>
@@ -1677,7 +1299,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="69" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$F$44</definedName>
+  </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -834,11 +836,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1271,7 +1274,7 @@
       <c r="F44" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="DD3C" sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$F$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$F$43</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -37,16 +37,16 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-06-0189</t>
+    <t>LGMED-PDMU</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-06-0210</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>June 04, 2020</t>
+    <t>June 24, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -70,23 +70,84 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>F014</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuel and Lubricants
+    <t>S1094</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Tablet
+Minimum Specifications: HiSilicon Kirin 659 2.36GHz octa-core processor 4 x 2.36GHz ARM Cortex A53 + 4 x 1.7GHz ARM Cortex A53 Mali-T830 GPU 4GB RAM 64GB  internal storage expandable via microSD up to 256GB (dedicated slot) 8MP rear camera with AF 8MP fro</t>
+  </si>
+  <si>
+    <t>S886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop i5
+Minimum Specification:
+Processor: 9th Generation Intel® Core™ i5-9300H (8MB Cache, 4 cores) or Ryzen 5 3000 Series
+Operating System: Windows 10 Home Single Language(64bit)
+Memory: 8gb (ddr4 2666MHz)
+Hard Drive: 512gb M2 PCIeNVMe Solid State Drive
 </t>
   </si>
   <si>
+    <t>S1092</t>
+  </si>
+  <si>
+    <t>Audio Video Conferencing System
+Camera: Smooth motorized pan, tilt and zoom controlled from remote 
+Pan +/- 90° Tilt +35° / -45
+10x lossless HD zoom
+Field of View: Diagonal: 90° Horizontal: 82.1° Vertical: 52.2°
+Full HD 1080p 30fps
+Speakerphone
+Full-duplex performance
+Acou</t>
+  </si>
+  <si>
+    <t>S1091</t>
+  </si>
+  <si>
+    <t>Desktop
+Minimum Specification:
+Ryzen 5 3600
+16 GB RAM (3200MHz) (2 Sticks)
+B450 Motherboard (AM4 Slot) with WIFI Support and Dual Channel RAM Slot
+6GB Graphics Card NVIDIA GTX Super series / Quadro or RX 5000 series 
+700W PSU
+Display Monitor 
+with Keyboard</t>
+  </si>
+  <si>
+    <t>S1090</t>
+  </si>
+  <si>
+    <t>Laptop  i7
+Minimum Specifications:
+Processor: 9th Generation (or Later) Intel i7 Processor or at least 4000 Series AMD Ryzen 7
+Memory: 8GB RAM 3200MHz
+Storage: 512GB GB PCIe Solid State Drive
+Video Card: 6GB NVIDIA or AMD Radeon GPU (Dedicated Graphics Card
+Wit</t>
+  </si>
+  <si>
+    <t>S1093</t>
+  </si>
+  <si>
+    <t>Omnidirectional Condenser Microphone for Web Hosting
+Minimum Specification:
+AUDIO TECHNICA MICROPHONE OMNIDIRECTIONAL CONDENSER BOUNDARY MICROPHONE U841A
+ELEMENT: Fixed-charge back plate permanently polarized condenser</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>For the payment of fuel and lubricants for the month of April 2020</t>
+    <t xml:space="preserve">Rent of Equipment in Support to Operations and Monitoring of Locally Funded Projects (LFPs) in Regional and Provincial Offices for FY 2020      </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -101,16 +162,16 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
-    <t>ARIEL O. IGLESIA, CESO III</t>
+    <t>GILBERTO L. TUMAMAC</t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA</t>
   </si>
   <si>
     <t>Designation :</t>
   </si>
   <si>
-    <t>Chief, FAD</t>
+    <t>OIC -  Chief, LGMED</t>
   </si>
   <si>
     <t>Regional Director</t>
@@ -317,16 +378,6 @@
       </left>
     </border>
     <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -352,6 +403,16 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -442,101 +503,101 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,59 +899,59 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.33203125" customWidth="true" style="0"/>
     <col min="2" max="2" width="16" customWidth="true" style="0"/>
-    <col min="3" max="3" width="42.5703125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true" style="0"/>
-    <col min="5" max="5" width="17.140625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="18.28515625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="42.5546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.6640625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="17.109375" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18.33203125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customHeight="1" ht="15.75">
+    <row r="1" spans="1:6" customHeight="1" ht="15.6">
       <c r="A1" s="1"/>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" customHeight="1" ht="18.75">
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" customHeight="1" ht="18">
       <c r="A2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+    <row r="3" spans="1:6" customHeight="1" ht="17.4">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-    </row>
-    <row r="5" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" customHeight="1" ht="15.6">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21">
       <c r="A6" s="3" t="s">
@@ -900,11 +961,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18">
       <c r="A7" s="5" t="s">
@@ -917,16 +978,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
@@ -935,32 +996,32 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A10" s="53"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
@@ -973,54 +1034,114 @@
         <v>19</v>
       </c>
       <c r="D11" s="14">
-        <v>290</v>
+        <v>7</v>
       </c>
       <c r="E11" s="16">
-        <v>32.63</v>
+        <v>25000</v>
       </c>
       <c r="F11" s="16">
-        <v>9462.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="30">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" customHeight="1" ht="30">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" customHeight="1" ht="30">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" customHeight="1" ht="30">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" customHeight="1" ht="30">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="18">
+        <v>6</v>
+      </c>
+      <c r="E12" s="20">
+        <v>61000</v>
+      </c>
+      <c r="F12" s="20">
+        <v>366000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20">
+        <v>70000</v>
+      </c>
+      <c r="F13" s="20">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>75000</v>
+      </c>
+      <c r="F14" s="20">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
+        <v>89000</v>
+      </c>
+      <c r="F15" s="20">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20">
+        <v>25000</v>
+      </c>
+      <c r="F16" s="20">
+        <v>25000</v>
+      </c>
     </row>
     <row r="17" spans="1:6" customHeight="1" ht="30">
       <c r="A17" s="17"/>
@@ -1166,139 +1287,131 @@
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="1:6" customHeight="1" ht="30">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" customHeight="1" ht="21.75">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="24" t="str">
-        <f>SUM(F11:F35)</f>
+    <row r="35" spans="1:6" customHeight="1" ht="21.75">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="24" t="str">
+        <f>SUM(F11:F34)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:6" customHeight="1" ht="15.75">
+      <c r="A36" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+    </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="37"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-    </row>
-    <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="37"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
-    </row>
-    <row r="40" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A40" s="38"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="43"/>
-    </row>
-    <row r="41" spans="1:6" customHeight="1" ht="16.5">
-      <c r="A41" s="25"/>
-      <c r="B41" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
+    </row>
+    <row r="39" spans="1:6" customHeight="1" ht="15">
+      <c r="A39" s="42"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+    </row>
+    <row r="40" spans="1:6" customHeight="1" ht="16.5">
+      <c r="A40" s="25"/>
+      <c r="B40" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" spans="1:6" customHeight="1" ht="15.75">
+      <c r="A41" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
-    </row>
-    <row r="43" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A43" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="1:6" customHeight="1" ht="20.25">
-      <c r="A44" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
+    </row>
+    <row r="43" spans="1:6" customHeight="1" ht="20.25">
+      <c r="A43" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD3C" sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:F39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -37,16 +37,16 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGMED-PDMU</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-06-0210</t>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-07-0231</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>June 24, 2020</t>
+    <t>July 06, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -70,84 +70,40 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S1094</t>
+    <t>S1157</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>Vehicle Dashboard Camera
+* Recording Front View + Rear View Camera
+* Dual HD Recording
+* 4.3 inch Integrated Touchscreen
+* Night Vision
+* Collision Detection
+* 2.4GHZ WI-FI High Speed Sharing
+* Large Aperture, wide angle lens, more clarity
+* Emergency Recording</t>
+  </si>
+  <si>
+    <t>S1220</t>
   </si>
   <si>
     <t>unit</t>
   </si>
   <si>
-    <t>Tablet
-Minimum Specifications: HiSilicon Kirin 659 2.36GHz octa-core processor 4 x 2.36GHz ARM Cortex A53 + 4 x 1.7GHz ARM Cortex A53 Mali-T830 GPU 4GB RAM 64GB  internal storage expandable via microSD up to 256GB (dedicated slot) 8MP rear camera with AF 8MP fro</t>
-  </si>
-  <si>
-    <t>S886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptop i5
-Minimum Specification:
-Processor: 9th Generation Intel® Core™ i5-9300H (8MB Cache, 4 cores) or Ryzen 5 3000 Series
-Operating System: Windows 10 Home Single Language(64bit)
-Memory: 8gb (ddr4 2666MHz)
-Hard Drive: 512gb M2 PCIeNVMe Solid State Drive
+    <t xml:space="preserve">Micro SD Card, 64GB
 </t>
   </si>
   <si>
-    <t>S1092</t>
-  </si>
-  <si>
-    <t>Audio Video Conferencing System
-Camera: Smooth motorized pan, tilt and zoom controlled from remote 
-Pan +/- 90° Tilt +35° / -45
-10x lossless HD zoom
-Field of View: Diagonal: 90° Horizontal: 82.1° Vertical: 52.2°
-Full HD 1080p 30fps
-Speakerphone
-Full-duplex performance
-Acou</t>
-  </si>
-  <si>
-    <t>S1091</t>
-  </si>
-  <si>
-    <t>Desktop
-Minimum Specification:
-Ryzen 5 3600
-16 GB RAM (3200MHz) (2 Sticks)
-B450 Motherboard (AM4 Slot) with WIFI Support and Dual Channel RAM Slot
-6GB Graphics Card NVIDIA GTX Super series / Quadro or RX 5000 series 
-700W PSU
-Display Monitor 
-with Keyboard</t>
-  </si>
-  <si>
-    <t>S1090</t>
-  </si>
-  <si>
-    <t>Laptop  i7
-Minimum Specifications:
-Processor: 9th Generation (or Later) Intel i7 Processor or at least 4000 Series AMD Ryzen 7
-Memory: 8GB RAM 3200MHz
-Storage: 512GB GB PCIe Solid State Drive
-Video Card: 6GB NVIDIA or AMD Radeon GPU (Dedicated Graphics Card
-Wit</t>
-  </si>
-  <si>
-    <t>S1093</t>
-  </si>
-  <si>
-    <t>Omnidirectional Condenser Microphone for Web Hosting
-Minimum Specification:
-AUDIO TECHNICA MICROPHONE OMNIDIRECTIONAL CONDENSER BOUNDARY MICROPHONE U841A
-ELEMENT: Fixed-charge back plate permanently polarized condenser</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Rent of Equipment in Support to Operations and Monitoring of Locally Funded Projects (LFPs) in Regional and Provincial Offices for FY 2020      </t>
+    <t xml:space="preserve">For the care and maintenance of service vehicles and to monitor and record what takes place on the road especially during incidents. </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -162,7 +118,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>GILBERTO L. TUMAMAC</t>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>ARIEL O. IGLESIA</t>
@@ -171,7 +127,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC -  Chief, LGMED</t>
+    <t>Chief, FAD</t>
   </si>
   <si>
     <t>Regional Director</t>
@@ -1034,13 +990,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" s="16">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="F11" s="16">
-        <v>175000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1048,100 +1004,52 @@
         <v>20</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="20">
-        <v>61000</v>
+        <v>1200</v>
       </c>
       <c r="F12" s="20">
-        <v>366000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
-      <c r="E13" s="20">
-        <v>70000</v>
-      </c>
-      <c r="F13" s="20">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="18">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20">
-        <v>75000</v>
-      </c>
-      <c r="F14" s="20">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="18">
-        <v>1</v>
-      </c>
-      <c r="E15" s="20">
-        <v>89000</v>
-      </c>
-      <c r="F15" s="20">
-        <v>89000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20">
-        <v>25000</v>
-      </c>
-      <c r="F16" s="20">
-        <v>25000</v>
-      </c>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" customHeight="1" ht="30">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" customHeight="1" ht="30">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" customHeight="1" ht="30">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" customHeight="1" ht="30">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" customHeight="1" ht="30">
       <c r="A17" s="17"/>
@@ -1293,7 +1201,7 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F35" s="24" t="str">
         <f>SUM(F11:F34)</f>
@@ -1302,7 +1210,7 @@
     </row>
     <row r="36" spans="1:6" customHeight="1" ht="15.75">
       <c r="A36" s="40" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -1313,7 +1221,7 @@
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="41"/>
       <c r="B37" s="45" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
@@ -1339,18 +1247,18 @@
     <row r="40" spans="1:6" customHeight="1" ht="16.5">
       <c r="A40" s="25"/>
       <c r="B40" s="49" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C40" s="49"/>
       <c r="D40" s="50" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E40" s="50"/>
       <c r="F40" s="51"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="15.75">
       <c r="A41" s="26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
@@ -1360,28 +1268,28 @@
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="56" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="57"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="20.25">
       <c r="A43" s="27" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="58" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E43" s="58"/>
       <c r="F43" s="59"/>
